--- a/docs/GeslachtCodelijst-to-AdministrativeGender.xlsx
+++ b/docs/GeslachtCodelijst-to-AdministrativeGender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T13:17:30+02:00</t>
+    <t>2024-04-09T16:00:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -67,7 +67,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Nictiz (info@nictiz.nl(WORK))</t>
   </si>
   <si>
     <t>Description</t>
@@ -100,12 +100,15 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/v3/AdministrativeGender</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/administrative-gender</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/v3/NullFlavor</t>
   </si>
   <si>
     <t>UNK</t>
@@ -429,47 +435,49 @@
       <c r="C2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>30</v>
+      </c>
       <c r="E2" t="s" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -505,7 +513,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>29</v>
@@ -513,21 +521,23 @@
       <c r="C2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>30</v>
+      </c>
       <c r="E2" t="s" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
